--- a/data/mars_data.xlsx
+++ b/data/mars_data.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythoncunfang\crm2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B727631-9A66-4750-8013-9A72AD8A5207}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FD8507-0E55-49C5-B0EB-439C20B598F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="368" windowWidth="19177" windowHeight="11032" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="368" windowWidth="19177" windowHeight="11032" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="work_trend" sheetId="1" r:id="rId1"/>
     <sheet name="content" sheetId="3" r:id="rId2"/>
-    <sheet name="login" sheetId="2" r:id="rId3"/>
+    <sheet name="content1" sheetId="6" r:id="rId3"/>
+    <sheet name="login" sheetId="2" r:id="rId4"/>
+    <sheet name="response" sheetId="4" r:id="rId5"/>
+    <sheet name="schedule" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>searchform</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +57,26 @@
   </si>
   <si>
     <t>小油油研究所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你真棒！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董事会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,7 +431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E491160D-81E5-4F14-B09E-BEBFB08D2CD2}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7:G8"/>
     </sheetView>
   </sheetViews>
@@ -431,8 +454,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4CCE56-6B13-4C52-A012-D51F4330DF11}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32382136-7D93-472B-900F-B4C2A306E2D2}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -440,6 +463,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4CCE56-6B13-4C52-A012-D51F4330DF11}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>2</v>
@@ -461,4 +510,57 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982FFCE2-991F-428D-8E9F-307C4C84C0D1}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3A6B8E-478F-42DE-8E0C-B11768637230}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/mars_data.xlsx
+++ b/data/mars_data.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythoncunfang\crm2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FD8507-0E55-49C5-B0EB-439C20B598F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6410AC-8C2D-4065-9E67-EC36170DEF6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="368" windowWidth="19177" windowHeight="11032" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="368" windowWidth="19177" windowHeight="11032" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="work_trend" sheetId="1" r:id="rId1"/>
     <sheet name="content" sheetId="3" r:id="rId2"/>
     <sheet name="content1" sheetId="6" r:id="rId3"/>
     <sheet name="login" sheetId="2" r:id="rId4"/>
-    <sheet name="response" sheetId="4" r:id="rId5"/>
-    <sheet name="schedule" sheetId="5" r:id="rId6"/>
+    <sheet name="dash_board" sheetId="7" r:id="rId5"/>
+    <sheet name="affiche" sheetId="8" r:id="rId6"/>
+    <sheet name="response" sheetId="4" r:id="rId7"/>
+    <sheet name="schedule" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>searchform</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +79,38 @@
   </si>
   <si>
     <t>content1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售利润！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工大会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户满意度调查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,7 +517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4CCE56-6B13-4C52-A012-D51F4330DF11}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -513,6 +547,69 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03FD184-57BC-4758-8A4B-B5EEC692AB68}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4EB401-2434-49B4-80F2-3348104E61D7}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982FFCE2-991F-428D-8E9F-307C4C84C0D1}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -539,7 +636,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3A6B8E-478F-42DE-8E0C-B11768637230}">
   <dimension ref="A1:A2"/>
   <sheetViews>

--- a/data/mars_data.xlsx
+++ b/data/mars_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythoncunfang\crm2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6410AC-8C2D-4065-9E67-EC36170DEF6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45273D95-7984-48B4-AE72-231C9FE40B1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="368" windowWidth="19177" windowHeight="11032" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="368" windowWidth="19177" windowHeight="11032" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="work_trend" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="login" sheetId="2" r:id="rId4"/>
     <sheet name="dash_board" sheetId="7" r:id="rId5"/>
     <sheet name="affiche" sheetId="8" r:id="rId6"/>
-    <sheet name="response" sheetId="4" r:id="rId7"/>
-    <sheet name="schedule" sheetId="5" r:id="rId8"/>
+    <sheet name="my_data" sheetId="9" r:id="rId7"/>
+    <sheet name="response" sheetId="4" r:id="rId8"/>
+    <sheet name="schedule" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>searchform</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +112,18 @@
   </si>
   <si>
     <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>945037719@qq.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -118,7 +131,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +144,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -151,14 +172,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -589,7 +613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4EB401-2434-49B4-80F2-3348104E61D7}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -610,6 +634,45 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D57DECF-5C93-4FA1-846A-41B2BCD1125B}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="12.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>18981859435</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{DE0C1D0D-7092-42D9-A175-9C62FF0C7A3C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982FFCE2-991F-428D-8E9F-307C4C84C0D1}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -636,7 +699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3A6B8E-478F-42DE-8E0C-B11768637230}">
   <dimension ref="A1:A2"/>
   <sheetViews>

--- a/data/mars_data.xlsx
+++ b/data/mars_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythoncunfang\crm2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45273D95-7984-48B4-AE72-231C9FE40B1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1109E4-3FC1-4239-AAE2-97854D264885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="368" windowWidth="19177" windowHeight="11032" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>searchform</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +124,22 @@
   </si>
   <si>
     <t>945037719@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">expected </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功删除了相关记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -131,7 +147,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +169,12 @@
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -176,9 +198,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -487,32 +513,248 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E491160D-81E5-4F14-B09E-BEBFB08D2CD2}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32382136-7D93-472B-900F-B4C2A306E2D2}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4CCE56-6B13-4C52-A012-D51F4330DF11}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03FD184-57BC-4758-8A4B-B5EEC692AB68}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4EB401-2434-49B4-80F2-3348104E61D7}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D57DECF-5C93-4FA1-846A-41B2BCD1125B}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="12.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>18981859435</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{DE0C1D0D-7092-42D9-A175-9C62FF0C7A3C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982FFCE2-991F-428D-8E9F-307C4C84C0D1}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:G8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32382136-7D93-472B-900F-B4C2A306E2D2}">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3A6B8E-478F-42DE-8E0C-B11768637230}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -523,7 +765,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
@@ -535,192 +777,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4CCE56-6B13-4C52-A012-D51F4330DF11}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>123456</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03FD184-57BC-4758-8A4B-B5EEC692AB68}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4EB401-2434-49B4-80F2-3348104E61D7}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D57DECF-5C93-4FA1-846A-41B2BCD1125B}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="12.19921875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2">
-        <v>18981859435</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{DE0C1D0D-7092-42D9-A175-9C62FF0C7A3C}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982FFCE2-991F-428D-8E9F-307C4C84C0D1}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3A6B8E-478F-42DE-8E0C-B11768637230}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>